--- a/artifacts/TestCase/test_case_0.0.1 ver.xlsx
+++ b/artifacts/TestCase/test_case_0.0.1 ver.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinoo\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SE\AlbaSidae\artifacts\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02D0F74-52E2-4413-A9EA-D911C43BC9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E276DA84-B2DA-49C9-A967-FE96195A482C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>A message"유효한 전화번호를 입력하세요."</t>
   </si>
   <si>
-    <t xml:space="preserve">24.12.8 버전 웹사이트 이용 </t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -985,6 +982,10 @@
   </si>
   <si>
     <t>24.12.8</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.12.8ver_localPC</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1802,7 +1803,7 @@
   <dimension ref="A1:AE1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J11" sqref="J11:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1815,7 +1816,8 @@
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="11" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="28.140625" customWidth="1"/>
@@ -1935,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2051,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2231,22 +2233,22 @@
         <v>36</v>
       </c>
       <c r="J11" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="M11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="18" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="23"/>
       <c r="Q11" s="5"/>
@@ -2268,7 +2270,7 @@
     <row r="12" spans="1:31" ht="15.75" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>30</v>
@@ -2277,25 +2279,25 @@
         <v>31</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="J12" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
@@ -2321,7 +2323,7 @@
     <row r="13" spans="1:31" ht="15.75" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>30</v>
@@ -2330,25 +2332,25 @@
         <v>31</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="I13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -2374,7 +2376,7 @@
     <row r="14" spans="1:31" ht="15.75" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>30</v>
@@ -2383,25 +2385,25 @@
         <v>31</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="I14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -2427,34 +2429,34 @@
     <row r="15" spans="1:31" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="G15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="H15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="I15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
@@ -2480,34 +2482,34 @@
     <row r="16" spans="1:31" ht="15.75" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="G16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>70</v>
-      </c>
       <c r="J16" s="18" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -2533,34 +2535,34 @@
     <row r="17" spans="1:31" ht="15.75" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="H17" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="J17" s="18" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
@@ -2586,34 +2588,34 @@
     <row r="18" spans="1:31" ht="15.75" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="21" t="s">
+      <c r="H18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="I18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -2639,34 +2641,34 @@
     <row r="19" spans="1:31" ht="15.75" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="E19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="H19" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -2692,16 +2694,16 @@
     <row r="20" spans="1:31" ht="15.75" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="21"/>
@@ -2709,13 +2711,13 @@
         <v>35</v>
       </c>
       <c r="I20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -2741,34 +2743,34 @@
     <row r="21" spans="1:31" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="H21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="I21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -2794,46 +2796,46 @@
     <row r="22" spans="1:31" ht="15.75" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="E22" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="F22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="H22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="I22" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="J22" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="L22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="M22" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N22" s="18" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="5"/>
@@ -2855,34 +2857,34 @@
     <row r="23" spans="1:31" ht="15.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>106</v>
-      </c>
       <c r="H23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="J23" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -2908,34 +2910,34 @@
     <row r="24" spans="1:31" ht="15.75" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="G24" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="H24" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="I24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -2961,34 +2963,34 @@
     <row r="25" spans="1:31" ht="15.75" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="E25" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="F25" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>116</v>
-      </c>
       <c r="H25" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -3014,34 +3016,34 @@
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="E26" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="F26" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="H26" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -3067,34 +3069,34 @@
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="20" t="s">
+      <c r="E27" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="F27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="H27" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="J27" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
@@ -3120,34 +3122,34 @@
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="E28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="H28" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="I28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -3173,34 +3175,34 @@
     <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="G29" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="H29" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>136</v>
-      </c>
       <c r="I29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -3226,34 +3228,34 @@
     <row r="30" spans="1:31" ht="15.75" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="G30" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="H30" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="I30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -3279,46 +3281,46 @@
     <row r="31" spans="1:31" ht="15.75" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="G31" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="H31" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="I31" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>149</v>
-      </c>
       <c r="J31" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="L31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="M31" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N31" s="18" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P31" s="23"/>
       <c r="Q31" s="5"/>
@@ -3340,34 +3342,34 @@
     <row r="32" spans="1:31" ht="15.75" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="G32" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="H32" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>156</v>
-      </c>
       <c r="I32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -3393,34 +3395,34 @@
     <row r="33" spans="1:31" ht="15.75" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="G33" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="H33" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>162</v>
-      </c>
       <c r="I33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -3446,34 +3448,34 @@
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="F34" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="G34" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="H34" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>168</v>
-      </c>
       <c r="I34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -3499,34 +3501,34 @@
     <row r="35" spans="1:31" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="F35" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="G35" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="H35" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>175</v>
-      </c>
       <c r="I35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -3552,32 +3554,32 @@
     <row r="36" spans="1:31" ht="15.75" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -3603,30 +3605,30 @@
     <row r="37" spans="1:31" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -3652,34 +3654,34 @@
     <row r="38" spans="1:31" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="F38" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="G38" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="H38" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>192</v>
-      </c>
       <c r="I38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -3705,44 +3707,44 @@
     <row r="39" spans="1:31" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="E39" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="18" t="s">
+      <c r="I39" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="I39" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="J39" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="L39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="M39" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N39" s="18"/>
       <c r="O39" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -3764,34 +3766,34 @@
     <row r="40" spans="1:31" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="F40" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="G40" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="H40" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>204</v>
-      </c>
       <c r="I40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
@@ -3817,34 +3819,34 @@
     <row r="41" spans="1:31" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="D41" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="G41" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>209</v>
-      </c>
       <c r="I41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K41" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
@@ -3870,34 +3872,34 @@
     <row r="42" spans="1:31" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="F42" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>195</v>
-      </c>
       <c r="I42" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K42" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
@@ -3923,34 +3925,34 @@
     <row r="43" spans="1:31" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="18" t="s">
+      <c r="F43" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="G43" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="H43" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>216</v>
-      </c>
       <c r="I43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K43" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
@@ -3976,32 +3978,32 @@
     <row r="44" spans="1:31" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>219</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="H44" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="I44" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K44" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
@@ -4027,32 +4029,32 @@
     <row r="45" spans="1:31" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="H45" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>228</v>
-      </c>
       <c r="I45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K45" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
@@ -4078,32 +4080,32 @@
     <row r="46" spans="1:31" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="D46" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="E46" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="F46" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I46" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K46" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -4129,32 +4131,32 @@
     <row r="47" spans="1:31" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>236</v>
-      </c>
       <c r="E47" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I47" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K47" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -4180,32 +4182,32 @@
     <row r="48" spans="1:31" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="D48" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="E48" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I48" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K48" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -4231,32 +4233,32 @@
     <row r="49" spans="1:31" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>244</v>
-      </c>
       <c r="E49" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I49" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K49" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -4282,31 +4284,31 @@
     <row r="50" spans="1:31" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="D50" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="F50" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="H50" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="I50" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K50" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -4332,32 +4334,32 @@
     <row r="51" spans="1:31" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="D51" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="E51" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" s="30" t="s">
         <v>254</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>255</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I51" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K51" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
@@ -4383,32 +4385,32 @@
     <row r="52" spans="1:31" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" s="30" t="s">
         <v>257</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>258</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K52" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L52" s="32"/>
       <c r="M52" s="32"/>
